--- a/doc/04_画面遷移図_ハイドレンジア.xlsx
+++ b/doc/04_画面遷移図_ハイドレンジア.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\b3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DD7D7D-DB64-4961-961F-03B888A558FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9DE26D-56A8-4593-89AC-65990E4A1299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1430" yWindow="130" windowWidth="14400" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -638,6 +638,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF40FF3B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3869,7 +3874,7 @@
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="40FF3B"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -6670,6 +6675,123 @@
           </a:solidFill>
           <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171268</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>130730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60289</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>52331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E51E6C-F4E2-4C7F-94A0-042CF64A7F18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3449651" y="10988424"/>
+          <a:ext cx="3741370" cy="499598"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6282"/>
+            <a:gd name="adj2" fmla="val 376955"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="40FF3B"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196271</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415635</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8723AD7A-3E19-4BAA-AA92-DF100FFC242D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095540" y="13339885"/>
+          <a:ext cx="829941" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="40FF3B"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8701,8 +8823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8765,7 +8887,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13">
-        <v>45089</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.2">

--- a/doc/04_画面遷移図_ハイドレンジア.xlsx
+++ b/doc/04_画面遷移図_ハイドレンジア.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\b3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9DE26D-56A8-4593-89AC-65990E4A1299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E1A26-FDCD-4EE2-A4B1-E5F6A7461802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="0" windowWidth="16990" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -422,12 +422,34 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>色分けは特に意味ないけど線が重なるところはわかりづらいので色変えてます</t>
+    <rPh sb="0" eb="2">
+      <t>イロワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イロカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +471,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -589,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,6 +662,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1844,74 +1877,6 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>490521</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>59016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>294001</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157146</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E3AB0D-C65A-4F3E-8E87-B9457BAFF5C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="15834619" y="1995246"/>
-          <a:ext cx="1031841" cy="1097474"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9083"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>検索画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>490521</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>103164</xdr:rowOff>
     </xdr:from>
@@ -2500,29 +2465,30 @@
       <xdr:rowOff>108081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>490521</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>261968</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>108081</xdr:rowOff>
+      <xdr:rowOff>108082</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFD324E-7EFC-4D22-A333-47B65157DA62}"/>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB19D16-FA74-47E7-ACBD-89598E308471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="59" idx="3"/>
+          <a:endCxn id="65" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14746251" y="2543983"/>
-          <a:ext cx="1088368" cy="0"/>
+          <a:off x="17788862" y="2842316"/>
+          <a:ext cx="2695988" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2554,35 +2520,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>294001</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>261968</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>153081</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>108082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22216</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108082</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB19D16-FA74-47E7-ACBD-89598E308471}"/>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6592C9ED-A79E-4EE5-B960-FA7765D56A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="1"/>
-          <a:endCxn id="65" idx="3"/>
+          <a:stCxn id="65" idx="1"/>
+          <a:endCxn id="66" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16866460" y="2543983"/>
-          <a:ext cx="582147" cy="1"/>
+          <a:off x="18568081" y="2543984"/>
+          <a:ext cx="483315" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2614,35 +2580,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>153081</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>478021</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>108082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>22216</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>404478</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>108082</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6592C9ED-A79E-4EE5-B960-FA7765D56A8A}"/>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1F94A6-682C-4373-A3A8-D472D3084C88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="65" idx="1"/>
-          <a:endCxn id="66" idx="3"/>
+          <a:stCxn id="66" idx="1"/>
+          <a:endCxn id="35" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18568081" y="2543984"/>
-          <a:ext cx="483315" cy="0"/>
+          <a:off x="20121382" y="2543984"/>
+          <a:ext cx="540637" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2674,35 +2640,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>478021</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>478526</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>108082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>404478</xdr:colOff>
+      <xdr:rowOff>108081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>390354</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>108082</xdr:rowOff>
+      <xdr:rowOff>108081</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1F94A6-682C-4373-A3A8-D472D3084C88}"/>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BFF179-B410-4EED-BFC8-FBE234ED9A11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="66" idx="1"/>
-          <a:endCxn id="35" idx="3"/>
+          <a:stCxn id="35" idx="1"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20121382" y="2543984"/>
-          <a:ext cx="540637" cy="0"/>
+          <a:off x="21828256" y="2493622"/>
+          <a:ext cx="521084" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2734,35 +2700,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>478526</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>390354</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108081</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>570652</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>440681</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32263</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BFF179-B410-4EED-BFC8-FBE234ED9A11}"/>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17D900C-2F34-454B-AC0D-F91EC6F04C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="1"/>
-          <a:endCxn id="37" idx="3"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21828256" y="2493622"/>
-          <a:ext cx="521084" cy="0"/>
+          <a:off x="1514571" y="2580843"/>
+          <a:ext cx="891178" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2794,37 +2760,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923238</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>570652</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>440681</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32263</xdr:rowOff>
+      <xdr:colOff>467807</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="直線矢印コネクタ 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17D900C-2F34-454B-AC0D-F91EC6F04C4C}"/>
+        <xdr:cNvPr id="113" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B64D308-6D90-4688-B760-5B584BAAE502}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="3"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="42" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1514571" y="2580843"/>
-          <a:ext cx="891178" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="624685" y="3555001"/>
+          <a:ext cx="1085593" cy="488488"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
@@ -2854,38 +2820,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>923238</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>55705</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>467807</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>14</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>174303</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103728</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B64D308-6D90-4688-B760-5B584BAAE502}"/>
+        <xdr:cNvPr id="116" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64792AA4-1B77-4219-9E4B-496855586898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="42" idx="1"/>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="17" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="624685" y="3555001"/>
-          <a:ext cx="1085593" cy="488488"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm>
+          <a:off x="3556788" y="2637072"/>
+          <a:ext cx="906550" cy="1243235"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -2921,28 +2889,28 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>174303</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103728</xdr:rowOff>
+      <xdr:colOff>154586</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33448</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64792AA4-1B77-4219-9E4B-496855586898}"/>
+        <xdr:cNvPr id="120" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D3BD2C-EA72-4554-B887-F46C207DD889}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="17" idx="3"/>
+          <a:endCxn id="10" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3556788" y="2637072"/>
-          <a:ext cx="906550" cy="1243235"/>
+          <a:ext cx="886833" cy="8191376"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2979,32 +2947,32 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>571174</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>30230</xdr:rowOff>
+      <xdr:rowOff>29116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>154586</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>33448</xdr:rowOff>
+      <xdr:colOff>165722</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52005</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D3BD2C-EA72-4554-B887-F46C207DD889}"/>
+        <xdr:cNvPr id="123" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D756F8-EFB8-47B0-9493-54BD04EBA7C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556788" y="2637072"/>
-          <a:ext cx="886833" cy="8191376"/>
+          <a:off x="3566257" y="2664366"/>
+          <a:ext cx="906882" cy="2562889"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3041,32 +3009,32 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>571174</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>29116</xdr:rowOff>
+      <xdr:rowOff>30230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165722</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>52005</xdr:rowOff>
+      <xdr:colOff>176862</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>143322</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76D756F8-EFB8-47B0-9493-54BD04EBA7C6}"/>
+        <xdr:cNvPr id="126" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDDD69A-9C50-489F-8244-B75A63AA6319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="11" idx="3"/>
+          <a:endCxn id="13" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3566257" y="2664366"/>
-          <a:ext cx="906882" cy="2562889"/>
+          <a:off x="3556788" y="2637072"/>
+          <a:ext cx="909109" cy="3789408"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3107,28 +3075,28 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>176862</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>143322</xdr:rowOff>
+      <xdr:colOff>165724</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>118270</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDDD69A-9C50-489F-8244-B75A63AA6319}"/>
+        <xdr:cNvPr id="129" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B370C4-5F3A-4BE7-96BC-06CCCD98B4B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="13" idx="3"/>
+          <a:endCxn id="12" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3556788" y="2637072"/>
-          <a:ext cx="909109" cy="3789408"/>
+          <a:ext cx="897971" cy="5101198"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3165,37 +3133,36 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>571174</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>30230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>165724</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>118270</xdr:rowOff>
+      <xdr:rowOff>27309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390112</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B370C4-5F3A-4BE7-96BC-06CCCD98B4B4}"/>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5506AC47-8DF0-4B9A-A3DB-CA965E1CF2EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
+          <a:endCxn id="7" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3556788" y="2637072"/>
-          <a:ext cx="897971" cy="5101198"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="3561447" y="2879036"/>
+          <a:ext cx="2959301" cy="5656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -3224,36 +3191,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571174</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>27309</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>390112</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32965</xdr:rowOff>
+      <xdr:colOff>424707</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103728</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5506AC47-8DF0-4B9A-A3DB-CA965E1CF2EB}"/>
+        <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D38FAA-1BDD-447C-9E6F-0F8EBB673B36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="7" idx="3"/>
+          <a:stCxn id="17" idx="1"/>
+          <a:endCxn id="69" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3561447" y="2879036"/>
-          <a:ext cx="2959301" cy="5656"/>
+        <a:xfrm>
+          <a:off x="5614599" y="3880307"/>
+          <a:ext cx="937301" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3285,35 +3251,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>100125</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>424707</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103728</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277723</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121966</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32261</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D38FAA-1BDD-447C-9E6F-0F8EBB673B36}"/>
+        <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BF5BF2-FE7C-45F3-A516-FBFBC82445B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="1"/>
-          <a:endCxn id="69" idx="3"/>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5614599" y="3880307"/>
-          <a:ext cx="937301" cy="0"/>
+          <a:off x="7614547" y="2575188"/>
+          <a:ext cx="1062757" cy="5654"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3345,38 +3311,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>277723</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121966</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32261</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16333</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>490521</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>81144</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BF5BF2-FE7C-45F3-A516-FBFBC82445B4}"/>
+        <xdr:cNvPr id="155" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD249C2C-1730-4996-9F89-6497AD6F341D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-          <a:endCxn id="8" idx="3"/>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="31" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7614547" y="2575188"/>
-          <a:ext cx="1062757" cy="5654"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+          <a:off x="14703648" y="2518729"/>
+          <a:ext cx="1085669" cy="7875285"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -3413,27 +3381,27 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>490521</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>81144</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>148528</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD249C2C-1730-4996-9F89-6497AD6F341D}"/>
+        <xdr:cNvPr id="158" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BDF8D5-CDAF-4E51-B237-1B3279453758}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="31" idx="3"/>
+          <a:endCxn id="33" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14703648" y="2518729"/>
-          <a:ext cx="1085669" cy="7875285"/>
+          <a:ext cx="1085669" cy="6461003"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3475,27 +3443,27 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>490521</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>148528</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161018</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BDF8D5-CDAF-4E51-B237-1B3279453758}"/>
+        <xdr:cNvPr id="161" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E523D42-270E-4856-AD3E-BB93CFFFC064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="33" idx="3"/>
+          <a:endCxn id="62" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14703648" y="2518729"/>
-          <a:ext cx="1085669" cy="6461003"/>
+          <a:ext cx="1085669" cy="5156456"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3537,27 +3505,27 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>490521</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161018</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="161" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E523D42-270E-4856-AD3E-BB93CFFFC064}"/>
+        <xdr:cNvPr id="164" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD22BFE7-514C-4F23-B29E-C733A3C8AB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="62" idx="3"/>
+          <a:endCxn id="61" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14703648" y="2518729"/>
-          <a:ext cx="1085669" cy="5156456"/>
+          <a:ext cx="1085669" cy="3950897"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3599,27 +3567,27 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>490521</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>107867</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1836</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD22BFE7-514C-4F23-B29E-C733A3C8AB02}"/>
+        <xdr:cNvPr id="167" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96011FA1-8F14-4071-9222-A88C872DE197}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="61" idx="3"/>
+          <a:endCxn id="60" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14703648" y="2518729"/>
-          <a:ext cx="1085669" cy="3950897"/>
+          <a:ext cx="1085669" cy="2692459"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3661,27 +3629,27 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>490521</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1836</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4621</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96011FA1-8F14-4071-9222-A88C872DE197}"/>
+        <xdr:cNvPr id="170" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABC1AC8-7021-4173-99C1-933D47D1DE97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="60" idx="3"/>
+          <a:endCxn id="64" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14703648" y="2518729"/>
-          <a:ext cx="1085669" cy="2692459"/>
+          <a:ext cx="1085669" cy="1378207"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3715,40 +3683,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>16333</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>490521</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>428697</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>367129</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>4621</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="170" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABC1AC8-7021-4173-99C1-933D47D1DE97}"/>
+        <xdr:cNvPr id="173" name="直線矢印コネクタ 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1379BB2-3B56-4223-8384-5EB629C59E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="64" idx="3"/>
+          <a:stCxn id="64" idx="1"/>
+          <a:endCxn id="68" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14703648" y="2518729"/>
-          <a:ext cx="1085669" cy="1378207"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="16950456" y="3890861"/>
+          <a:ext cx="549914" cy="6075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -3777,35 +3743,1917 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>428697</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>163176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>367129</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>4621</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254953</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>1403</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="173" name="直線矢印コネクタ 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1379BB2-3B56-4223-8384-5EB629C59E5B}"/>
+        <xdr:cNvPr id="208" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C67C982-050F-4D30-8A45-D020516256A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="64" idx="1"/>
-          <a:endCxn id="68" idx="3"/>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16950456" y="3890861"/>
-          <a:ext cx="549914" cy="6075"/>
+        <a:xfrm rot="10800000">
+          <a:off x="3559410" y="2930194"/>
+          <a:ext cx="991131" cy="9502268"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 56030"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>555859</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>383535</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC0203E-1680-47F9-B6D0-811FEDD501A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="21231090" y="203919"/>
+          <a:ext cx="81474" cy="3496565"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1175439"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>197063</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>140397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848CD43A-8607-4AA3-AAE6-B6DE69597871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8775133" y="5588029"/>
+          <a:ext cx="1039501" cy="1142135"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12022"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>登録成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208581</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22643</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF7E62-1FE5-4774-8A87-2438211E928E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8786651" y="7172620"/>
+          <a:ext cx="1039501" cy="1143794"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12022"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>登録失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243129</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>197063</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>43044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE18C0A2-C9B7-4F40-B42D-06D863B282CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="1"/>
+          <a:endCxn id="101" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7595761" y="3880307"/>
+          <a:ext cx="1179372" cy="2278790"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>211671</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208582</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>124516</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AF55B8-FF7F-4260-B2BC-00426D1C1214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="102" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6564711" y="5522576"/>
+          <a:ext cx="3834251" cy="609630"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1018383</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22643</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>124517</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD291F2-A7A2-41FC-A930-42EB74584058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="1"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2979085" y="2098349"/>
+          <a:ext cx="6847067" cy="5646168"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93661"/>
+            <a:gd name="adj2" fmla="val 115296"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>43044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22281</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457516E4-4A15-448F-B349-DB7F0AE597BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9814634" y="6159097"/>
+          <a:ext cx="623875" cy="1561166"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>395894</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>214996</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CE8D96-F688-41CB-9D48-7D8AA992DCA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23051787" y="4842963"/>
+          <a:ext cx="1043745" cy="1163024"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12022"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>登録成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>440833</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>254895</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A8EAC0-1862-4DE9-A1E6-A291FF6B05AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23096726" y="6309586"/>
+          <a:ext cx="1038705" cy="1170156"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12022"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>更新失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>191567</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>395894</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6750EC-33D2-419F-AB94-AFC57AD2809A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="1"/>
+          <a:endCxn id="153" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21622817" y="4009923"/>
+          <a:ext cx="1428970" cy="1414552"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7533</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>254895</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>155015</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1641109-1024-4BD3-8723-21892264CC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="1"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17102729" y="1949133"/>
+          <a:ext cx="6958441" cy="4618137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82195"/>
+            <a:gd name="adj2" fmla="val 112499"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>214996</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>203870</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231DCFAF-B287-41A6-8D20-2F43EA1E615B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="153" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24095532" y="5424475"/>
+          <a:ext cx="1213517" cy="1479713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>191567</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>440833</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>159128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DCE438-8F14-45C1-812B-90178A3237EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="1"/>
+          <a:endCxn id="154" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21622817" y="4009923"/>
+          <a:ext cx="1473909" cy="2884741"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48654"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>17330</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>443667</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47F7FE8-9575-426E-8E8E-520706A7C441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27589698" y="1976793"/>
+          <a:ext cx="1039057" cy="1145243"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12022"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>更新成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>39989</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>466326</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>96179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5625F46-FFAB-4383-8F04-17E40F7AB142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="27612357" y="3397384"/>
+          <a:ext cx="1039057" cy="1143795"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12022"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>更新失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>376715</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>17330</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直線矢印コネクタ 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29284B79-B9A2-4BF3-AC50-1695337A3A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="174" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26723645" y="2547819"/>
+          <a:ext cx="866053" cy="1596"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>443667</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>490176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111403</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直線矢印コネクタ 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F77B6B-048F-4F5D-AA39-E6590CFC3B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28628755" y="2549415"/>
+          <a:ext cx="1271947" cy="1725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>466326</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>501316</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33421</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直線矢印コネクタ 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DC870F-AE1C-4169-824E-61258E137F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28651414" y="3969282"/>
+          <a:ext cx="1260428" cy="7823"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>39988</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25598</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5840B11B-6CBE-4D49-8320-7F70D7FD12DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="175" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="26618868" y="2975793"/>
+          <a:ext cx="1428156" cy="558821"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF653CCD-8DA3-4E55-B6C3-69FBB5869CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4600185" y="11803982"/>
+          <a:ext cx="1074389" cy="1085144"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>更新画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6816CB9B-34B7-4173-A3A1-4424632D2CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4600185" y="13018168"/>
+          <a:ext cx="1074389" cy="1085145"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>削除申請</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="304" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5E26DD-64CA-463E-B61B-4E67DEF1B74B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6279593" y="11803982"/>
+          <a:ext cx="1074389" cy="1085144"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>更新確認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="305" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9601BA-87EA-41D7-9B66-BE85C2F8F3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6285943" y="13037219"/>
+          <a:ext cx="1074389" cy="533066"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>削除申請</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>成功画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11141</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300790</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="306" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B808B86-AC24-4EF6-8267-7AC4E2131786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9814650" y="2913431"/>
+          <a:ext cx="902368" cy="863148"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F606FC-1261-40D6-A49C-EEC3DE444FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6279593" y="13667540"/>
+          <a:ext cx="1074389" cy="533066"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>削除申請</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>失敗画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBE862B-A10C-401D-8A90-B666EF86E021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7978051" y="11803983"/>
+          <a:ext cx="1108019" cy="533065"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>更新成功</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A614A9B-3459-49BB-BB3E-AAC5EF6C20B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7965351" y="12485104"/>
+          <a:ext cx="1133419" cy="533065"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>更新失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="310" name="直線矢印コネクタ 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980A428C-B2E5-4826-BEB8-F675866AF0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="302" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9814649" y="2821554"/>
+          <a:ext cx="912729" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3837,1916 +5685,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1018383</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171269</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>47446</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47607</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="208" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C67C982-050F-4D30-8A45-D020516256A9}"/>
+        <xdr:cNvPr id="311" name="直線矢印コネクタ 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBDF231-9109-4C93-B38C-5C49D0406232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="4" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="302" idx="1"/>
+          <a:endCxn id="304" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="-809903" y="6964783"/>
-          <a:ext cx="9671914" cy="2093938"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2364"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="40FF3B"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>555859</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>159335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>383535</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76180</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="224" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC0203E-1680-47F9-B6D0-811FEDD501A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="0"/>
-          <a:endCxn id="66" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="21231090" y="203919"/>
-          <a:ext cx="81474" cy="3496565"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -1175439"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>197063</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>140397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11125</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>112796</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848CD43A-8607-4AA3-AAE6-B6DE69597871}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8775133" y="5588029"/>
-          <a:ext cx="1039501" cy="1142135"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12022"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>登録成功</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>208581</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>53936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22643</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>27993</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF7E62-1FE5-4774-8A87-2438211E928E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8786651" y="7172620"/>
-          <a:ext cx="1039501" cy="1143794"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12022"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>登録失敗</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243129</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>197063</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>43044</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE18C0A2-C9B7-4F40-B42D-06D863B282CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="1"/>
-          <a:endCxn id="101" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7595761" y="3880307"/>
-          <a:ext cx="1179372" cy="2278790"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>211671</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>208582</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>124516</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AF55B8-FF7F-4260-B2BC-00426D1C1214}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="102" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6564711" y="5522576"/>
-          <a:ext cx="3834251" cy="609630"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1018383</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>159928</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22643</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>124517</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD291F2-A7A2-41FC-A930-42EB74584058}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="102" idx="1"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2979085" y="2098349"/>
-          <a:ext cx="6847067" cy="5646168"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -95591"/>
-            <a:gd name="adj2" fmla="val 115296"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>43044</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22281</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457516E4-4A15-448F-B349-DB7F0AE597BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="101" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9814634" y="6159097"/>
-          <a:ext cx="623875" cy="1561166"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>395894</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>148499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>214996</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>120898</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CE8D96-F688-41CB-9D48-7D8AA992DCA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="23051787" y="4842963"/>
-          <a:ext cx="1043745" cy="1163024"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12022"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>登録成功</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>440833</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>84318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>254895</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>63849</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A8EAC0-1862-4DE9-A1E6-A291FF6B05AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="23096726" y="6309586"/>
-          <a:ext cx="1038705" cy="1170156"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12022"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>更新失敗</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>191567</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>395894</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>49654</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6750EC-33D2-419F-AB94-AFC57AD2809A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="1"/>
-          <a:endCxn id="153" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21622817" y="4009923"/>
-          <a:ext cx="1428970" cy="1414552"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>7533</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>254895</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>155015</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1641109-1024-4BD3-8723-21892264CC87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="154" idx="1"/>
-          <a:endCxn id="44" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="17102729" y="1949133"/>
-          <a:ext cx="6958441" cy="4618137"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -82195"/>
-            <a:gd name="adj2" fmla="val 112499"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>214996</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>49654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>203870</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>168652</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231DCFAF-B287-41A6-8D20-2F43EA1E615B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="153" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24095532" y="5424475"/>
-          <a:ext cx="1213517" cy="1479713"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>191567</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>440833</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>159128</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="162" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7DCE438-8F14-45C1-812B-90178A3237EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="1"/>
-          <a:endCxn id="154" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21622817" y="4009923"/>
-          <a:ext cx="1473909" cy="2884741"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 48654"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>17330</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38372</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>443667</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13878</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47F7FE8-9575-426E-8E8E-520706A7C441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="27589698" y="1976793"/>
-          <a:ext cx="1039057" cy="1145243"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12022"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>更新成功</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>39989</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>122121</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>466326</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>96179</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5625F46-FFAB-4383-8F04-17E40F7AB142}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="27612357" y="3397384"/>
-          <a:ext cx="1039057" cy="1143795"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12022"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>更新失敗</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>376715</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>108082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>17330</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109678</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="176" name="直線矢印コネクタ 175">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29284B79-B9A2-4BF3-AC50-1695337A3A55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="1"/>
-          <a:endCxn id="174" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26723645" y="2547819"/>
-          <a:ext cx="866053" cy="1596"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>443667</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>109678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>490176</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>111403</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="180" name="直線矢印コネクタ 179">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F77B6B-048F-4F5D-AA39-E6590CFC3B31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="174" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28628755" y="2549415"/>
-          <a:ext cx="1271947" cy="1725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>466326</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>501316</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33421</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="183" name="直線矢印コネクタ 182">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DC870F-AE1C-4169-824E-61258E137F91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="175" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28651414" y="3969282"/>
-          <a:ext cx="1260428" cy="7823"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>93886</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101389</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>39988</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25598</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="188" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5840B11B-6CBE-4D49-8320-7F70D7FD12DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="175" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="26618868" y="2975793"/>
-          <a:ext cx="1428156" cy="558821"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88863</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="302" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF653CCD-8DA3-4E55-B6C3-69FBB5869CF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4600185" y="11803982"/>
-          <a:ext cx="1074389" cy="1085144"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>更新画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133313</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="303" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6816CB9B-34B7-4173-A3A1-4424632D2CA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4600185" y="13018168"/>
-          <a:ext cx="1074389" cy="1085145"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>削除申請</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88863</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="304" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5E26DD-64CA-463E-B61B-4E67DEF1B74B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6279593" y="11803982"/>
-          <a:ext cx="1074389" cy="1085144"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>更新確認</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69851</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>7700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="305" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9601BA-87EA-41D7-9B66-BE85C2F8F3B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6285943" y="13037219"/>
-          <a:ext cx="1074389" cy="533066"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>削除申請</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>成功画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11141</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>300790</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="306" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B808B86-AC24-4EF6-8267-7AC4E2131786}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9814650" y="2913431"/>
-          <a:ext cx="902368" cy="863148"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="307" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F606FC-1261-40D6-A49C-EEC3DE444FEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6279593" y="13667540"/>
-          <a:ext cx="1074389" cy="533066"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>削除申請</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>失敗画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="308" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBE862B-A10C-401D-8A90-B666EF86E021}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7978051" y="11803983"/>
-          <a:ext cx="1108019" cy="533065"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>更新成功</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A614A9B-3459-49BB-BB3E-AAC5EF6C20B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7965351" y="12485104"/>
-          <a:ext cx="1133419" cy="533065"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>更新失敗</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11140</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47607</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="310" name="直線矢印コネクタ 309">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980A428C-B2E5-4826-BEB8-F675866AF0F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="302" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9814649" y="2821554"/>
-          <a:ext cx="912729" cy="0"/>
+          <a:off x="5674574" y="12346554"/>
+          <a:ext cx="605019" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5778,38 +5746,95 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47607</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="311" name="直線矢印コネクタ 310">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBDF231-9109-4C93-B38C-5C49D0406232}"/>
+        <xdr:cNvPr id="312" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F216199-CBF4-4A08-9D20-7CF8009238BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="302" idx="1"/>
-          <a:endCxn id="304" idx="3"/>
+          <a:stCxn id="304" idx="1"/>
+          <a:endCxn id="308" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7353982" y="12069513"/>
+          <a:ext cx="624069" cy="277041"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="313" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D3E13-77AE-4FB7-B7F7-48B32925CFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="309" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5674574" y="12346554"/>
-          <a:ext cx="605019" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+          <a:off x="7324112" y="12497803"/>
+          <a:ext cx="641239" cy="252831"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
@@ -5839,35 +5864,155 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43322</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>162093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47607</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131178</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="312" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F216199-CBF4-4A08-9D20-7CF8009238BF}"/>
+        <xdr:cNvPr id="314" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB45B51-A1D1-403C-B8A8-706173C7EACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="304" idx="1"/>
-          <a:endCxn id="308" idx="3"/>
+          <a:stCxn id="307" idx="1"/>
+          <a:endCxn id="8" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9234111" y="2100514"/>
+          <a:ext cx="4247064" cy="2308559"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59156"/>
+            <a:gd name="adj2" fmla="val 162019"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>584703</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="315" name="直線矢印コネクタ 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECAB25A-92E8-408B-BF95-1F708E471228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="308" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086070" y="12068695"/>
+          <a:ext cx="689422" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C2655F-F1D0-47D1-91C1-CE57AEF32ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="303" idx="1"/>
+          <a:endCxn id="305" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7353982" y="12069513"/>
-          <a:ext cx="624069" cy="277041"/>
+          <a:off x="5674574" y="13305572"/>
+          <a:ext cx="611369" cy="255169"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -5898,36 +6043,284 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129358</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="317" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73F2A1A-C71C-44A3-AA0F-3790DA55AEDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="303" idx="1"/>
+          <a:endCxn id="307" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5674574" y="13560741"/>
+          <a:ext cx="605019" cy="371512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>117476</xdr:rowOff>
+      <xdr:rowOff>117909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="313" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D3E13-77AE-4FB7-B7F7-48B32925CFE4}"/>
+        <xdr:cNvPr id="318" name="直線矢印コネクタ 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136E576E-C0E8-4042-8400-FE8D06F28009}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="309" idx="3"/>
+          <a:stCxn id="309" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9098770" y="12748613"/>
+          <a:ext cx="704739" cy="2454"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="319" name="直線矢印コネクタ 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F80896D-6D39-431E-B9FE-F37B4D40399F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="305" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324112" y="12497803"/>
-          <a:ext cx="641239" cy="252831"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+          <a:off x="7360332" y="13304322"/>
+          <a:ext cx="2448177" cy="2121"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261173</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>110123</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>36439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8695FFB-A104-4788-8C1A-09CECEA6E7D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10677401" y="4733137"/>
+          <a:ext cx="1074389" cy="1085144"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7296"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>予約内容確認画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43322</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261173</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="341" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5F170D-1A34-485F-B913-CD69E6E8A80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="320" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8904715" y="3503023"/>
+          <a:ext cx="2102082" cy="1443290"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
@@ -5957,492 +6350,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>43322</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>162093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>131178</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="314" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB45B51-A1D1-403C-B8A8-706173C7EACE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="307" idx="1"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9234111" y="2100514"/>
-          <a:ext cx="4247064" cy="2308559"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -59156"/>
-            <a:gd name="adj2" fmla="val 162019"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>103958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>584703</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>103958</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="315" name="直線矢印コネクタ 314">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECAB25A-92E8-408B-BF95-1F708E471228}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="308" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9086070" y="12068695"/>
-          <a:ext cx="689422" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3993</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>92057</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="316" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C2655F-F1D0-47D1-91C1-CE57AEF32ADD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="303" idx="1"/>
-          <a:endCxn id="305" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5674574" y="13305572"/>
-          <a:ext cx="611369" cy="255169"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>160100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>92057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129358</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="317" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73F2A1A-C71C-44A3-AA0F-3790DA55AEDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="303" idx="1"/>
-          <a:endCxn id="307" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5674574" y="13560741"/>
-          <a:ext cx="605019" cy="371512"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>117909</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="318" name="直線矢印コネクタ 317">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136E576E-C0E8-4042-8400-FE8D06F28009}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="309" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9098770" y="12748613"/>
-          <a:ext cx="704739" cy="2454"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>7700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>2743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>5000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4864</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="319" name="直線矢印コネクタ 318">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F80896D-6D39-431E-B9FE-F37B4D40399F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="305" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7360332" y="13304322"/>
-          <a:ext cx="2448177" cy="2121"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>261173</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>121032</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>110123</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>36439</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8695FFB-A104-4788-8C1A-09CECEA6E7D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10677401" y="4733137"/>
-          <a:ext cx="1074389" cy="1085144"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7296"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>予約内容確認画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>43322</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>65469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>261173</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>162288</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="341" name="カギ線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5F170D-1A34-485F-B913-CD69E6E8A80A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="320" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8904715" y="3503023"/>
-          <a:ext cx="2102082" cy="1443290"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>95887</xdr:colOff>
       <xdr:row>36</xdr:row>
@@ -6666,7 +6573,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50832"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -6675,123 +6582,6 @@
           </a:solidFill>
           <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171268</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>130730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>60289</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>52331</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E51E6C-F4E2-4C7F-94A0-042CF64A7F18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3449651" y="10988424"/>
-          <a:ext cx="3741370" cy="499598"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -6282"/>
-            <a:gd name="adj2" fmla="val 376955"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="40FF3B"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>196271</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>415635</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8723AD7A-3E19-4BAA-AA92-DF100FFC242D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095540" y="13339885"/>
-          <a:ext cx="829941" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="40FF3B"/>
-          </a:solidFill>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8821,10 +8611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8834,7 +8624,7 @@
     <col min="4" max="4" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8846,7 +8636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8857,8 +8647,11 @@
       <c r="D2" s="13">
         <v>45083</v>
       </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8866,7 +8659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -8874,7 +8667,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8882,7 +8675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8890,7 +8683,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>

--- a/doc/04_画面遷移図_ハイドレンジア.xlsx
+++ b/doc/04_画面遷移図_ハイドレンジア.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E1A26-FDCD-4EE2-A4B1-E5F6A7461802}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74645150-A7F0-44C3-B1E6-3F90DAA3AD10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="0" windowWidth="16990" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -6415,13 +6415,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>37187</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>33448</xdr:rowOff>
+      <xdr:rowOff>33132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>87585</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>27</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167447</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6439,8 +6439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5551661" y="10828448"/>
-          <a:ext cx="50398" cy="1470526"/>
+          <a:off x="5536527" y="11271434"/>
+          <a:ext cx="50398" cy="1476202"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6581,6 +6581,137 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358055</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>39518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96332</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>20794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41158E8F-E360-4DD2-90D4-72C4E9224376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6489089" y="10790725"/>
+          <a:ext cx="964484" cy="988517"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10611"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>フォーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>申請書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37187</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>30156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358055</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F720A2-A44E-471C-87A9-C3E8BFEF47D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="92" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5555118" y="11284984"/>
+          <a:ext cx="933971" cy="2907"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -8613,8 +8744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="D53" zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
